--- a/data/trans_bre/CoTrAQ_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R-Edad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.258445409848389</v>
+        <v>2.184997277202165</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.42028148807697</v>
+        <v>-10.50554826597273</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.03977519803246867</v>
+        <v>0.04748390163467274</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2564899360926874</v>
+        <v>-0.203991401215961</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>35.09521061165214</v>
+        <v>34.06653674609434</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.85905908659898</v>
+        <v>18.2934564666791</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.8995359393906834</v>
+        <v>0.9058188323883409</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4653489811065485</v>
+        <v>0.55550956559719</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.967033128512808</v>
+        <v>-9.674322725253798</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.461422730774247</v>
+        <v>-8.186297107978463</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.139642114192374</v>
+        <v>-0.137836616215703</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1369031829804508</v>
+        <v>-0.1508052251033239</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.270953222744716</v>
+        <v>4.962503516527094</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.398593681973818</v>
+        <v>8.840740547879975</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.07876328058449221</v>
+        <v>0.07714222081890133</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1748632141099531</v>
+        <v>0.1860869954712476</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.96216405004767</v>
+        <v>-16.63780744169276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.580517614901881</v>
+        <v>-8.804362075006303</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2390442000102426</v>
+        <v>-0.2243507595454929</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1647839963315829</v>
+        <v>-0.1559135510560358</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.440570728596515</v>
+        <v>-1.738728974753625</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.314467782833116</v>
+        <v>6.200709506184243</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.03504680143423747</v>
+        <v>-0.02789140913660575</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.104364718629468</v>
+        <v>0.1209855499647414</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-18.31550099218211</v>
+        <v>-19.02191326139418</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-18.2968076395441</v>
+        <v>-17.24383879385067</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2367514372408186</v>
+        <v>-0.2463514155152925</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2979427593322245</v>
+        <v>-0.2850375141230175</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.8853104280477833</v>
+        <v>-2.221098414095878</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.4376437861000363</v>
+        <v>-0.293382845617399</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.01133639155735947</v>
+        <v>-0.02954426489190141</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.008241973902363446</v>
+        <v>-0.01063492508144198</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.47730028149691</v>
+        <v>-16.7462628217088</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-28.90116832351452</v>
+        <v>-28.0109034701068</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.223229906383082</v>
+        <v>-0.2121468167957</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4568783310278813</v>
+        <v>-0.4504699321927466</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.90975310431297</v>
+        <v>10.47614817518905</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.908576874928935</v>
+        <v>-1.824777597318383</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.1521574877442223</v>
+        <v>0.1453409591032242</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.05814111762115662</v>
+        <v>-0.03756194235798498</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-9.707328736442744</v>
+        <v>-10.14936375067366</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.587318944034973</v>
+        <v>-8.483320118790479</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1346017981813648</v>
+        <v>-0.1389390472070413</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1565502287732722</v>
+        <v>-0.1519601638324349</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-1.332803698508985</v>
+        <v>-1.400177174375961</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.4886512674571928</v>
+        <v>-0.2547196966008093</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01973763882725552</v>
+        <v>-0.01864387355973391</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.008186051961090388</v>
+        <v>-0.004097308406878743</v>
       </c>
     </row>
     <row r="22">
